--- a/Income/GWW_inc.xlsx
+++ b/Income/GWW_inc.xlsx
@@ -1978,10 +1978,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.3544</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.3592</v>
@@ -2107,10 +2105,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.1025</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.0864</v>
@@ -2236,10 +2232,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0966</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0803</v>
@@ -2365,10 +2359,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.064</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0589</v>
@@ -2494,10 +2486,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0815</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0785</v>
@@ -2623,10 +2613,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>1523000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1510000000.0</v>
@@ -3514,10 +3502,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.1282</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.128</v>
@@ -3643,10 +3629,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0987</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.0952</v>
